--- a/teamf.xlsx
+++ b/teamf.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>sl.no</t>
   </si>
@@ -27,49 +27,76 @@
     <t>User stories</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>As a Finance manager I want to get notifications on daily money transactions So that I can  get more information about each and every transactions.</t>
-  </si>
-  <si>
-    <t>As a Finance manager I want to receive notifications on each money transaction  So that I can monitoring becomes easy.</t>
-  </si>
-  <si>
-    <t>As a Finance manager I want to review whether goods taken from the consumer is received on time So that I can track the updates.</t>
-  </si>
-  <si>
-    <t>As a Finance manager I want to review the terms and conditions set on the consumer if he fails to provide the goods in time  So that I can track the updates.</t>
-  </si>
-  <si>
-    <t>As a Finance manager I want to pay the money to the consumer on time   So that I can keep a healthy relation with the customer.</t>
-  </si>
-  <si>
     <t>As a Finance manager I want to set increment or decrement on the budget set through edit option   So that I can vary the budget according to the situation.</t>
   </si>
   <si>
-    <t>As a Finance manager I want to monitor the terms and condition or quotation set by each seller  So that I can validate whether the buying is done from proper seller.</t>
-  </si>
-  <si>
-    <t>As a Finance manager I want to review all the documnents and respond back to the procurement team  So that I can communicate with the procurement team.</t>
-  </si>
-  <si>
-    <t>As a Finance manager I want to view the pending requests sent by the procurement team So that I can manage the budget accordingly.</t>
-  </si>
-  <si>
-    <t>As a Finance manager I want to view financial reports like budget  on daily basis  So that I can keep daily updates on reports .</t>
-  </si>
-  <si>
-    <t>As a Finance manager I want to view the consumed budget So that I can get the remaining balance.</t>
-  </si>
-  <si>
-    <t>As a Finance manager I want to know the allocated budget So that i can respond to the pending requests.</t>
-  </si>
-  <si>
-    <t>As a Finance manager I want to approve or deny the pending requests sent by the procurement team So that i can manage the pending requests .</t>
-  </si>
-  <si>
-    <t>As a Finance manager I want to track the utilized budget So that I can monitor the remaining budget.</t>
+    <t>As a Finance manager I want to get notifications on pending requests  So that I can  get more information about each and every requests.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to view the pending requests So that i can approve or reject the requests.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to approve or reject the requests sent  by the procurement team  So that I can keep the track on approved requests.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to validate each quotation sent by the procurement team money transaction  So that I can get the best quotation.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to view the allocation budget So that I can track the updates.So that i can select my quotation.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to select one best quotation set by the sellers by going through the terms and conditions of each seller and allocate the finance So that i can fulfill my duty.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to review all the documents and respond back to the procurement team   So that I can maintain good communication with the procurement team.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to release money in given time So that i can efficiently perform my duty.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to get notifications on daily transaction So that I can monitor the daily transactions .</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to get notification on each money transaction So that i can monitor each money transactions.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to view  whether goods taken in from the customer are recieved on time So that to meet the customers needs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a Finance manager I want to review terms and conditions imposed on customer if fails to provide goods in time . So that  there is no delay. </t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to view the quotation sent by the procurement team so that i can manage the quotation accordingly.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to get financial reports based on budget apprival time on daily basis  So that i can manage report.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to view the consumed budget  So that i can enquire about the balance..</t>
+  </si>
+  <si>
+    <t>review and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approval of </t>
+  </si>
+  <si>
+    <t>quotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review on </t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>editt</t>
   </si>
 </sst>
 </file>
@@ -85,12 +112,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -114,14 +171,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,16 +492,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+    <col min="3" max="3" width="255.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -438,13 +514,25 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2"/>
@@ -457,9 +545,11 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -471,8 +561,9 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -484,8 +575,9 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
+      <c r="B5" s="10"/>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -493,89 +585,131 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
+      <c r="B7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
+      <c r="B9" s="10"/>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
+      <c r="B11" s="11"/>
+      <c r="C11" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
+      <c r="B12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
+      <c r="B13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
+      <c r="B14" s="11"/>
+      <c r="C14" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>3</v>
+      <c r="B18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/teamf.xlsx
+++ b/teamf.xlsx
@@ -96,7 +96,7 @@
     <t>condition</t>
   </si>
   <si>
-    <t>editt</t>
+    <t>edit</t>
   </si>
 </sst>
 </file>
@@ -150,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -167,6 +167,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -178,26 +193,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -575,8 +590,8 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="3"/>
@@ -585,10 +600,10 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -596,10 +611,10 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -607,10 +622,10 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -618,8 +633,8 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -627,8 +642,8 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -636,8 +651,8 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -645,10 +660,10 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -656,10 +671,10 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -667,8 +682,8 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -676,8 +691,8 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -685,10 +700,10 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -696,8 +711,8 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -705,10 +720,10 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="13" t="s">
         <v>11</v>
       </c>
     </row>

--- a/teamf.xlsx
+++ b/teamf.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>sl.no</t>
   </si>
@@ -186,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,6 +213,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,14 +512,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="255.5703125" customWidth="1"/>
+    <col min="3" max="3" width="180.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -529,18 +532,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
@@ -560,7 +555,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
